--- a/final_df_predictions_volume.xlsx
+++ b/final_df_predictions_volume.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\ARKAD\MODEL-VOLUMEN\resultados_finales_nuevo\OnBalanceVolumeIndicator-MFIIndicator-ChaikinMoneyFlowIndicator-WMAIndicator_window-7_window-24_window-15\out\accuracy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFAFAC5-AB12-4A37-8B19-648FA0E32621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBD2270-AA0D-4815-8EE2-AB0C69A179D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E532"/>
+  <dimension ref="A1:E533"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A507" workbookViewId="0">
+      <selection activeCell="I530" sqref="I530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>432.6199951171875</v>
@@ -476,7 +476,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>432.35000610351563</v>
@@ -493,7 +493,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>435.04998779296881</v>
@@ -510,7 +510,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>435.95999145507813</v>
@@ -595,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>438.6300048828125</v>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>438.17999267578131</v>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>446.3900146484375</v>
@@ -697,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>449.1300048828125</v>
@@ -765,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>453.95999145507813</v>
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>453.92001342773438</v>
@@ -935,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>450.72000122070313</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>448.07998657226563</v>
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>443.97000122070313</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>444.70001220703131</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>442.45999145507813</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>437.54998779296881</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>439.25</v>
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>438.67999267578131</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52">
         <v>450.73001098632813</v>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>448.39999389648438</v>
@@ -1377,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>446.95001220703131</v>
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>446.22000122070313</v>
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <v>447.1400146484375</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>442.67999267578131</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>444.010009765625</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>429.17001342773438</v>
@@ -1615,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <v>424.3599853515625</v>
@@ -1632,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>421.97000122070313</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76">
         <v>436.95001220703131</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>432.80999755859381</v>
@@ -1802,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82">
         <v>425.98001098632813</v>
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>419.6099853515625</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85">
         <v>421.8900146484375</v>
@@ -1904,7 +1904,7 @@
         <v>1</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>413.55999755859381</v>
@@ -1989,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93">
         <v>435.47000122070313</v>
@@ -2040,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>438.42999267578131</v>
@@ -2108,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100">
         <v>450.1099853515625</v>
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>449.22000122070313</v>
@@ -2159,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103">
         <v>450.52999877929688</v>
@@ -2176,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>453.17999267578131</v>
@@ -2261,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109">
         <v>457.14999389648438</v>
@@ -2278,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110">
         <v>455.48001098632813</v>
@@ -2312,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112">
         <v>455.60000610351563</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113">
         <v>455.260009765625</v>
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114">
         <v>458.80999755859381</v>
@@ -2363,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>456.91000366210938</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120">
         <v>472.5</v>
@@ -2465,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D121">
         <v>469.489990234375</v>
@@ -2550,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126">
         <v>473.8599853515625</v>
@@ -2567,7 +2567,7 @@
         <v>1</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>474.07000732421881</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128">
         <v>475.44000244140631</v>
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D130">
         <v>476.489990234375</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132">
         <v>470.42999267578131</v>
@@ -2669,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D133">
         <v>468.29998779296881</v>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138">
         <v>477.58999633789063</v>
@@ -2805,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D141">
         <v>471.82000732421881</v>
@@ -2856,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144">
         <v>484.010009765625</v>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D147">
         <v>487.57998657226563</v>
@@ -2924,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148">
         <v>487.58999633789063</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150">
         <v>490.55999755859381</v>
@@ -2992,7 +2992,7 @@
         <v>1</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152">
         <v>484.6300048828125</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D153">
         <v>489.64999389648438</v>
@@ -3060,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D156">
         <v>496.29000854492188</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157">
         <v>498.10000610351563</v>
@@ -3196,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D164">
         <v>497.72000122070313</v>
@@ -3213,7 +3213,7 @@
         <v>1</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165">
         <v>495.42001342773438</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167">
         <v>509.26998901367188</v>
@@ -3264,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168">
         <v>508.29998779296881</v>
@@ -3332,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D172">
         <v>508.98001098632813</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D173">
         <v>512.030029296875</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D176">
         <v>513.1400146484375</v>
@@ -3434,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D178">
         <v>510.48001098632813</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181">
         <v>516.969970703125</v>
@@ -3536,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184">
         <v>512.1500244140625</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185">
         <v>515.77001953125</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D186">
         <v>523.3900146484375</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187">
         <v>522.1099853515625</v>
@@ -3689,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D193">
         <v>518.239990234375</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200">
         <v>515.67999267578125</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D201">
         <v>514.3699951171875</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D202">
         <v>515.1300048828125</v>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D207">
         <v>497.82998657226563</v>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="C212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D212">
         <v>510.08999633789063</v>
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D214">
         <v>501.3800048828125</v>
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D217">
         <v>513.75</v>
@@ -4131,7 +4131,7 @@
         <v>1</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D219">
         <v>515.260009765625</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="C220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D220">
         <v>517.3800048828125</v>
@@ -4199,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D223">
         <v>521.1099853515625</v>
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D225">
         <v>529.8800048828125</v>
@@ -4267,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D227">
         <v>529.57000732421875</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="C229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D229">
         <v>530.6500244140625</v>
@@ -4318,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D230">
         <v>532.96002197265625</v>
@@ -4352,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="C232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D232">
         <v>530.27001953125</v>
@@ -4403,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D235">
         <v>523.59002685546875</v>
@@ -4420,7 +4420,7 @@
         <v>1</v>
       </c>
       <c r="C236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D236">
         <v>529.02001953125</v>
@@ -4437,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D237">
         <v>526.46002197265625</v>
@@ -4471,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D239">
         <v>534.97998046875</v>
@@ -4488,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D240">
         <v>533.65997314453125</v>
@@ -4539,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="C243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D243">
         <v>541.6300048828125</v>
@@ -4590,7 +4590,7 @@
         <v>1</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D246">
         <v>542.08001708984375</v>
@@ -4641,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D249">
         <v>544.4000244140625</v>
@@ -4658,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D250">
         <v>544.33001708984375</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="C254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D254">
         <v>547.15997314453125</v>
@@ -4743,7 +4743,7 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D255">
         <v>545.6300048828125</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="C259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D259">
         <v>555.44000244140625</v>
@@ -4862,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D262">
         <v>561.44000244140625</v>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="C263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D263">
         <v>557.6300048828125</v>
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D265">
         <v>562.8699951171875</v>
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="C269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D269">
         <v>553</v>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D270">
         <v>554.53997802734375</v>
@@ -5032,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="C272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D272">
         <v>541.3499755859375</v>
@@ -5151,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D279">
         <v>511.6400146484375</v>
@@ -5202,7 +5202,7 @@
         <v>1</v>
       </c>
       <c r="C282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D282">
         <v>523.90997314453125</v>
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D283">
         <v>529.80999755859375</v>
@@ -5236,7 +5236,7 @@
         <v>1</v>
       </c>
       <c r="C284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D284">
         <v>534.21002197265625</v>
@@ -5253,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="C285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D285">
         <v>536.530029296875</v>
@@ -5304,7 +5304,7 @@
         <v>1</v>
       </c>
       <c r="C288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D288">
         <v>551.41998291015625</v>
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="C289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D289">
         <v>554.72998046875</v>
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="C291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D291">
         <v>559.77001953125</v>
@@ -5372,7 +5372,7 @@
         <v>1</v>
       </c>
       <c r="C292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D292">
         <v>562.55999755859375</v>
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="C293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D293">
         <v>559.530029296875</v>
@@ -5406,7 +5406,7 @@
         <v>1</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D294">
         <v>563.17999267578125</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="C296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D296">
         <v>561.21002197265625</v>
@@ -5491,7 +5491,7 @@
         <v>1</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D299">
         <v>560.469970703125</v>
@@ -5525,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="C301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D301">
         <v>550.8900146484375</v>
@@ -5593,7 +5593,7 @@
         <v>1</v>
       </c>
       <c r="C305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D305">
         <v>548.70001220703125</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="C309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D309">
         <v>565.0999755859375</v>
@@ -5729,7 +5729,7 @@
         <v>1</v>
       </c>
       <c r="C313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D313">
         <v>569.34002685546875</v>
@@ -5780,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="C316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D316">
         <v>574.3800048828125</v>
@@ -5831,7 +5831,7 @@
         <v>1</v>
       </c>
       <c r="C319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D319">
         <v>573.4000244140625</v>
@@ -6035,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="C331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D331">
         <v>585.90997314453125</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="C332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D332">
         <v>584.07000732421875</v>
@@ -6137,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="C337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D337">
         <v>581.510009765625</v>
@@ -6171,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="C339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D339">
         <v>579.8499755859375</v>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="C341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D341">
         <v>575.55999755859375</v>
@@ -6341,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="C349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D349">
         <v>598.67999267578125</v>
@@ -6358,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="C350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D350">
         <v>597.3699951171875</v>
@@ -6443,7 +6443,7 @@
         <v>1</v>
       </c>
       <c r="C355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D355">
         <v>590.3800048828125</v>
@@ -6494,7 +6494,7 @@
         <v>1</v>
       </c>
       <c r="C358">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D358">
         <v>599.52001953125</v>
@@ -6545,7 +6545,7 @@
         <v>1</v>
       </c>
       <c r="C361">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D361">
         <v>599.65997314453125</v>
@@ -6647,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="C367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D367">
         <v>607.69000244140625</v>
@@ -6664,7 +6664,7 @@
         <v>1</v>
       </c>
       <c r="C368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D368">
         <v>605.3699951171875</v>
@@ -6715,7 +6715,7 @@
         <v>1</v>
       </c>
       <c r="C371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D371">
         <v>606.4000244140625</v>
@@ -6732,7 +6732,7 @@
         <v>1</v>
       </c>
       <c r="C372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D372">
         <v>606</v>
@@ -6749,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="C373">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D373">
         <v>604.19000244140625</v>
@@ -6834,7 +6834,7 @@
         <v>1</v>
       </c>
       <c r="C378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D378">
         <v>596.05999755859375</v>
@@ -6868,7 +6868,7 @@
         <v>1</v>
       </c>
       <c r="C380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D380">
         <v>597.53997802734375</v>
@@ -6936,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="C384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D384">
         <v>587.530029296875</v>
@@ -6953,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="C385">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D385">
         <v>596.27001953125</v>
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="C387">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D387">
         <v>588.70001220703125</v>
@@ -7021,7 +7021,7 @@
         <v>0</v>
       </c>
       <c r="C389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D389">
         <v>575.77001953125</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="C391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D391">
         <v>590.33001708984375</v>
@@ -7123,7 +7123,7 @@
         <v>1</v>
       </c>
       <c r="C395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D395">
         <v>605.91998291015625</v>
@@ -7174,7 +7174,7 @@
         <v>1</v>
       </c>
       <c r="C398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D398">
         <v>594.80999755859375</v>
@@ -7310,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="C406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D406">
         <v>605.989990234375</v>
@@ -7327,7 +7327,7 @@
         <v>1</v>
       </c>
       <c r="C407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D407">
         <v>606.8900146484375</v>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="C411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D411">
         <v>604.47998046875</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="C414">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D414">
         <v>610.08001708984375</v>
@@ -7480,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="C416">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D416">
         <v>610.15997314453125</v>
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="C422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D422">
         <v>596.17999267578125</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="C423">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D423">
         <v>579.71002197265625</v>
@@ -7633,7 +7633,7 @@
         <v>1</v>
       </c>
       <c r="C425">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D425">
         <v>575.47998046875</v>
@@ -7701,7 +7701,7 @@
         <v>0</v>
       </c>
       <c r="C429">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D429">
         <v>562.16998291015625</v>
@@ -7735,7 +7735,7 @@
         <v>1</v>
       </c>
       <c r="C431">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D431">
         <v>556.1099853515625</v>
@@ -7786,7 +7786,7 @@
         <v>1</v>
       </c>
       <c r="C434">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D434">
         <v>562.83001708984375</v>
@@ -7803,7 +7803,7 @@
         <v>1</v>
       </c>
       <c r="C435">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D435">
         <v>563.33001708984375</v>
@@ -7905,7 +7905,7 @@
         <v>1</v>
       </c>
       <c r="C441">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D441">
         <v>565.530029296875</v>
@@ -7922,7 +7922,7 @@
         <v>1</v>
       </c>
       <c r="C442">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D442">
         <v>549.83001708984375</v>
@@ -7973,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="C445">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D445">
         <v>545.1099853515625</v>
@@ -7990,7 +7990,7 @@
         <v>1</v>
       </c>
       <c r="C446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D446">
         <v>523.66998291015625</v>
@@ -8024,7 +8024,7 @@
         <v>1</v>
       </c>
       <c r="C448">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D448">
         <v>521.8599853515625</v>
@@ -8041,7 +8041,7 @@
         <v>0</v>
       </c>
       <c r="C449">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D449">
         <v>493.44000244140631</v>
@@ -8058,7 +8058,7 @@
         <v>1</v>
       </c>
       <c r="C450">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D450">
         <v>532.16998291015625</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="C451">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D451">
         <v>523.010009765625</v>
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="C453">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D453">
         <v>539.66998291015625</v>
@@ -8160,7 +8160,7 @@
         <v>1</v>
       </c>
       <c r="C456">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D456">
         <v>521.15997314453125</v>
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="C457">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D457">
         <v>520.1400146484375</v>
@@ -8211,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="C459">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D459">
         <v>536.719970703125</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="C460">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D460">
         <v>546.6500244140625</v>
@@ -8296,7 +8296,7 @@
         <v>1</v>
       </c>
       <c r="C464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D464">
         <v>560.3699951171875</v>
@@ -8381,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="C469">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D469">
         <v>565.239990234375</v>
@@ -8398,7 +8398,7 @@
         <v>1</v>
       </c>
       <c r="C470">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D470">
         <v>566.47998046875</v>
@@ -8449,7 +8449,7 @@
         <v>1</v>
       </c>
       <c r="C473">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D473">
         <v>587.80999755859375</v>
@@ -8466,7 +8466,7 @@
         <v>1</v>
       </c>
       <c r="C474">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D474">
         <v>585.55999755859375</v>
@@ -8534,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="C478">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D478">
         <v>588.44000244140625</v>
@@ -8551,7 +8551,7 @@
         <v>1</v>
       </c>
       <c r="C479">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D479">
         <v>582.65997314453125</v>
@@ -8585,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="C481">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D481">
         <v>586.07000732421875</v>
@@ -8602,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="C482">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D482">
         <v>591.55999755859375</v>
@@ -8619,7 +8619,7 @@
         <v>1</v>
       </c>
       <c r="C483">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D483">
         <v>593.05999755859375</v>
@@ -8636,7 +8636,7 @@
         <v>1</v>
       </c>
       <c r="C484">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D484">
         <v>588.92999267578125</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="C489">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D489">
         <v>598.65997314453125</v>
@@ -8806,7 +8806,7 @@
         <v>1</v>
       </c>
       <c r="C494">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D494">
         <v>598.5</v>
@@ -8823,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="C495">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D495">
         <v>600.4000244140625</v>
@@ -8840,7 +8840,7 @@
         <v>0</v>
       </c>
       <c r="C496">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D496">
         <v>600.21002197265625</v>
@@ -8857,7 +8857,7 @@
         <v>0</v>
       </c>
       <c r="C497">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D497">
         <v>598.44000244140625</v>
@@ -8993,7 +8993,7 @@
         <v>1</v>
       </c>
       <c r="C505">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D505">
         <v>616.3599853515625</v>
@@ -9061,7 +9061,7 @@
         <v>1</v>
       </c>
       <c r="C509">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D509">
         <v>621.3499755859375</v>
@@ -9078,7 +9078,7 @@
         <v>1</v>
       </c>
       <c r="C510">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D510">
         <v>622.77001953125</v>
@@ -9112,7 +9112,7 @@
         <v>1</v>
       </c>
       <c r="C512">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D512">
         <v>622.739990234375</v>
@@ -9129,7 +9129,7 @@
         <v>0</v>
       </c>
       <c r="C513">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D513">
         <v>623.15997314453125</v>
@@ -9146,7 +9146,7 @@
         <v>1</v>
       </c>
       <c r="C514">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D514">
         <v>627.52001953125</v>
@@ -9333,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="C525">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D525">
         <v>639.46002197265625</v>
@@ -9350,7 +9350,7 @@
         <v>1</v>
       </c>
       <c r="C526">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D526">
         <v>626.29998779296875</v>
@@ -9384,7 +9384,7 @@
         <v>1</v>
       </c>
       <c r="C528">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D528">
         <v>631.78997802734375</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="C529">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D529">
         <v>629.04998779296875</v>
@@ -9435,7 +9435,7 @@
         <v>0</v>
       </c>
       <c r="C531">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D531">
         <v>634.05999755859375</v>
@@ -9459,6 +9459,17 @@
       </c>
       <c r="E532">
         <v>635.91998291015625</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A533" s="2">
+        <v>45881</v>
+      </c>
+      <c r="B533">
+        <v>1</v>
+      </c>
+      <c r="C533">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
